--- a/Code/Results/Cases/Case_4_202/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_202/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9993034990315672</v>
+        <v>1.029642872460143</v>
       </c>
       <c r="D2">
-        <v>1.015865111589105</v>
+        <v>1.032833735723286</v>
       </c>
       <c r="E2">
-        <v>1.007483739774846</v>
+        <v>1.033278361253346</v>
       </c>
       <c r="F2">
-        <v>0.9761217469253374</v>
+        <v>1.02821394495719</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039929173711205</v>
+        <v>1.034117349114099</v>
       </c>
       <c r="J2">
-        <v>1.021505062299536</v>
+        <v>1.034788514523573</v>
       </c>
       <c r="K2">
-        <v>1.02710775788625</v>
+        <v>1.035637825768086</v>
       </c>
       <c r="L2">
-        <v>1.018839789583746</v>
+        <v>1.03608117050749</v>
       </c>
       <c r="M2">
-        <v>0.9879240814962483</v>
+        <v>1.031031414052521</v>
       </c>
       <c r="N2">
-        <v>1.02295571665627</v>
+        <v>1.03625803290611</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003959071598975</v>
+        <v>1.030600790180702</v>
       </c>
       <c r="D3">
-        <v>1.019163108501347</v>
+        <v>1.033530064845228</v>
       </c>
       <c r="E3">
-        <v>1.011632352282088</v>
+        <v>1.034184041280296</v>
       </c>
       <c r="F3">
-        <v>0.9834651452937967</v>
+        <v>1.029804137700556</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041262919241779</v>
+        <v>1.034337180944157</v>
       </c>
       <c r="J3">
-        <v>1.024342387120909</v>
+        <v>1.035387507612278</v>
       </c>
       <c r="K3">
-        <v>1.029556527406098</v>
+        <v>1.036143310324102</v>
       </c>
       <c r="L3">
-        <v>1.022118527446468</v>
+        <v>1.036795539243833</v>
       </c>
       <c r="M3">
-        <v>0.9943140576899092</v>
+        <v>1.032427385176808</v>
       </c>
       <c r="N3">
-        <v>1.025797070804334</v>
+        <v>1.036857876633695</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00690299137584</v>
+        <v>1.031220591702128</v>
       </c>
       <c r="D4">
-        <v>1.021251358776216</v>
+        <v>1.033980588234684</v>
       </c>
       <c r="E4">
-        <v>1.014260667797768</v>
+        <v>1.034770391529595</v>
       </c>
       <c r="F4">
-        <v>0.9880957726958142</v>
+        <v>1.030833035577246</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042096566869678</v>
+        <v>1.034478224356251</v>
       </c>
       <c r="J4">
-        <v>1.026131751181395</v>
+        <v>1.03577446382193</v>
       </c>
       <c r="K4">
-        <v>1.03109988987157</v>
+        <v>1.036469670567916</v>
       </c>
       <c r="L4">
-        <v>1.024189972773584</v>
+        <v>1.037257469763535</v>
       </c>
       <c r="M4">
-        <v>0.9983400268089248</v>
+        <v>1.033330137610621</v>
       </c>
       <c r="N4">
-        <v>1.027588975967029</v>
+        <v>1.037245382365549</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008124869268909</v>
+        <v>1.03148114812495</v>
       </c>
       <c r="D5">
-        <v>1.022118705812506</v>
+        <v>1.034169976335252</v>
       </c>
       <c r="E5">
-        <v>1.015352716256002</v>
+        <v>1.035016968440821</v>
       </c>
       <c r="F5">
-        <v>0.990015026985989</v>
+        <v>1.031265574650826</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042440208692186</v>
+        <v>1.034537231101289</v>
       </c>
       <c r="J5">
-        <v>1.0268732651734</v>
+        <v>1.035936988991353</v>
       </c>
       <c r="K5">
-        <v>1.031739213325258</v>
+        <v>1.036606699496834</v>
       </c>
       <c r="L5">
-        <v>1.025049267617649</v>
+        <v>1.037451590297705</v>
       </c>
       <c r="M5">
-        <v>1.000007806824274</v>
+        <v>1.03370953157025</v>
       </c>
       <c r="N5">
-        <v>1.028331542993956</v>
+        <v>1.037408138339354</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008329123146941</v>
+        <v>1.031524896226788</v>
       </c>
       <c r="D6">
-        <v>1.022263729657412</v>
+        <v>1.034201774718837</v>
       </c>
       <c r="E6">
-        <v>1.015535334848318</v>
+        <v>1.035058374200582</v>
       </c>
       <c r="F6">
-        <v>0.9903357098959419</v>
+        <v>1.031338199462438</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042497513345394</v>
+        <v>1.034547121709661</v>
       </c>
       <c r="J6">
-        <v>1.026997150736123</v>
+        <v>1.035964268819649</v>
       </c>
       <c r="K6">
-        <v>1.031846010768724</v>
+        <v>1.036629697115359</v>
       </c>
       <c r="L6">
-        <v>1.025192883011602</v>
+        <v>1.037484179590283</v>
       </c>
       <c r="M6">
-        <v>1.00028641994455</v>
+        <v>1.033773226400503</v>
       </c>
       <c r="N6">
-        <v>1.028455604488388</v>
+        <v>1.037435456908135</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006919379189619</v>
+        <v>1.031224073301386</v>
       </c>
       <c r="D7">
-        <v>1.021262989258962</v>
+        <v>1.033983118895173</v>
       </c>
       <c r="E7">
-        <v>1.014275309784022</v>
+        <v>1.034773686006711</v>
       </c>
       <c r="F7">
-        <v>0.9881215238474076</v>
+        <v>1.030838815216339</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042101185173927</v>
+        <v>1.034479013938576</v>
       </c>
       <c r="J7">
-        <v>1.026141700976878</v>
+        <v>1.035776636085191</v>
       </c>
       <c r="K7">
-        <v>1.031108469452596</v>
+        <v>1.036471502234697</v>
       </c>
       <c r="L7">
-        <v>1.024201499476116</v>
+        <v>1.037260063906454</v>
       </c>
       <c r="M7">
-        <v>0.9983624073147607</v>
+        <v>1.033335207569347</v>
       </c>
       <c r="N7">
-        <v>1.027598939892363</v>
+        <v>1.037247557713673</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000891477977781</v>
+        <v>1.029966612737224</v>
       </c>
       <c r="D8">
-        <v>1.016989414933293</v>
+        <v>1.033069073125948</v>
       </c>
       <c r="E8">
-        <v>1.008897736578961</v>
+        <v>1.033584374851946</v>
       </c>
       <c r="F8">
-        <v>0.9786294947100913</v>
+        <v>1.028751374447106</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040386131604757</v>
+        <v>1.034191891275137</v>
       </c>
       <c r="J8">
-        <v>1.022473851922218</v>
+        <v>1.034991078082914</v>
       </c>
       <c r="K8">
-        <v>1.027944068247616</v>
+        <v>1.03580880611768</v>
       </c>
       <c r="L8">
-        <v>1.019958516300406</v>
+        <v>1.036322659790857</v>
       </c>
       <c r="M8">
-        <v>0.99010694141093</v>
+        <v>1.031503302495856</v>
       </c>
       <c r="N8">
-        <v>1.023925882071338</v>
+        <v>1.036460884128927</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9897124191875892</v>
+        <v>1.027750521542847</v>
       </c>
       <c r="D9">
-        <v>1.009088662655494</v>
+        <v>1.031458056836278</v>
       </c>
       <c r="E9">
-        <v>0.9989659520697036</v>
+        <v>1.031491069543372</v>
       </c>
       <c r="F9">
-        <v>0.9609017298340438</v>
+        <v>1.025072305920073</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037128874818702</v>
+        <v>1.033676735872699</v>
       </c>
       <c r="J9">
-        <v>1.015633762982765</v>
+        <v>1.033601973107908</v>
       </c>
       <c r="K9">
-        <v>1.022035983813535</v>
+        <v>1.034635522553382</v>
       </c>
       <c r="L9">
-        <v>1.012075828288121</v>
+        <v>1.034668426530121</v>
       </c>
       <c r="M9">
-        <v>0.9746626872237703</v>
+        <v>1.028270948222689</v>
       </c>
       <c r="N9">
-        <v>1.017076079421021</v>
+        <v>1.035069806465525</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9818362596511602</v>
+        <v>1.0262729122298</v>
       </c>
       <c r="D10">
-        <v>1.003542825660497</v>
+        <v>1.030383831593888</v>
       </c>
       <c r="E10">
-        <v>0.9919986930560682</v>
+        <v>1.030097155331567</v>
       </c>
       <c r="F10">
-        <v>0.9482941517282629</v>
+        <v>1.022618755033256</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034783817685042</v>
+        <v>1.03332710766339</v>
       </c>
       <c r="J10">
-        <v>1.010789539365428</v>
+        <v>1.032672627514841</v>
       </c>
       <c r="K10">
-        <v>1.01784840657305</v>
+        <v>1.033849616819133</v>
       </c>
       <c r="L10">
-        <v>1.006513932136407</v>
+        <v>1.033563977500297</v>
       </c>
       <c r="M10">
-        <v>0.9636642411639018</v>
+        <v>1.026112854529444</v>
       </c>
       <c r="N10">
-        <v>1.012224976450508</v>
+        <v>1.034139141095118</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9783131444563664</v>
+        <v>1.025633033853964</v>
       </c>
       <c r="D11">
-        <v>1.001067877106405</v>
+        <v>1.02991863316344</v>
       </c>
       <c r="E11">
-        <v>0.9888898107746309</v>
+        <v>1.029493959028182</v>
       </c>
       <c r="F11">
-        <v>0.9426180589670936</v>
+        <v>1.02155606402449</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033723330717923</v>
+        <v>1.033174245884125</v>
       </c>
       <c r="J11">
-        <v>1.008616805054861</v>
+        <v>1.032269429872461</v>
       </c>
       <c r="K11">
-        <v>1.015969682889035</v>
+        <v>1.033508428742654</v>
       </c>
       <c r="L11">
-        <v>1.004024335169963</v>
+        <v>1.033085350326705</v>
       </c>
       <c r="M11">
-        <v>0.9587097983294824</v>
+        <v>1.025177552765333</v>
       </c>
       <c r="N11">
-        <v>1.010049156608003</v>
+        <v>1.033735370865839</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9769864162917905</v>
+        <v>1.025395344308621</v>
       </c>
       <c r="D12">
-        <v>1.000136813846296</v>
+        <v>1.029745830194165</v>
       </c>
       <c r="E12">
-        <v>0.9877202718521182</v>
+        <v>1.029269961628853</v>
       </c>
       <c r="F12">
-        <v>0.9404742327031507</v>
+        <v>1.021161283372419</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033322278975213</v>
+        <v>1.033117245196889</v>
       </c>
       <c r="J12">
-        <v>1.007797728305146</v>
+        <v>1.032119545981737</v>
       </c>
       <c r="K12">
-        <v>1.015261393188098</v>
+        <v>1.033381563088782</v>
       </c>
       <c r="L12">
-        <v>1.003086575088898</v>
+        <v>1.032907507443795</v>
       </c>
       <c r="M12">
-        <v>0.9568381840235237</v>
+        <v>1.024830009105135</v>
       </c>
       <c r="N12">
-        <v>1.009228916675354</v>
+        <v>1.033585274122798</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9772718422158206</v>
+        <v>1.025446329996064</v>
       </c>
       <c r="D13">
-        <v>1.000337074173343</v>
+        <v>1.029782897356213</v>
       </c>
       <c r="E13">
-        <v>0.9879718259613601</v>
+        <v>1.029318007274787</v>
       </c>
       <c r="F13">
-        <v>0.9409357458885051</v>
+        <v>1.021245967528669</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033408635356596</v>
+        <v>1.033129482040815</v>
       </c>
       <c r="J13">
-        <v>1.007973979886471</v>
+        <v>1.032151701946701</v>
       </c>
       <c r="K13">
-        <v>1.015413807005736</v>
+        <v>1.033408782232624</v>
       </c>
       <c r="L13">
-        <v>1.003288330459271</v>
+        <v>1.032945658040984</v>
       </c>
       <c r="M13">
-        <v>0.9572411112865356</v>
+        <v>1.024904564418704</v>
       </c>
       <c r="N13">
-        <v>1.009405418554141</v>
+        <v>1.03361747575292</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9782038527282132</v>
+        <v>1.025613386574336</v>
       </c>
       <c r="D14">
-        <v>1.000991159285538</v>
+        <v>1.029904349369028</v>
       </c>
       <c r="E14">
-        <v>0.9887934431971563</v>
+        <v>1.029475442180478</v>
       </c>
       <c r="F14">
-        <v>0.9424415911126726</v>
+        <v>1.021523432389528</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033690327569927</v>
+        <v>1.033169538698765</v>
       </c>
       <c r="J14">
-        <v>1.008549349765227</v>
+        <v>1.032257042839704</v>
       </c>
       <c r="K14">
-        <v>1.015911352327066</v>
+        <v>1.033497944706438</v>
       </c>
       <c r="L14">
-        <v>1.00394709002224</v>
+        <v>1.033070650992996</v>
       </c>
       <c r="M14">
-        <v>0.9585557441385225</v>
+        <v>1.025148827402737</v>
       </c>
       <c r="N14">
-        <v>1.009981605524121</v>
+        <v>1.033722966242074</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.978775662089016</v>
+        <v>1.025716314271446</v>
       </c>
       <c r="D15">
-        <v>1.001392582544798</v>
+        <v>1.029979178967463</v>
       </c>
       <c r="E15">
-        <v>0.9892976830641015</v>
+        <v>1.02957245051157</v>
       </c>
       <c r="F15">
-        <v>0.9433645996892447</v>
+        <v>1.021694380834316</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033862929690641</v>
+        <v>1.033194189638051</v>
       </c>
       <c r="J15">
-        <v>1.00890223727204</v>
+        <v>1.032321931147617</v>
       </c>
       <c r="K15">
-        <v>1.016216502649514</v>
+        <v>1.033552862993177</v>
       </c>
       <c r="L15">
-        <v>1.004351223788671</v>
+        <v>1.033147655389768</v>
       </c>
       <c r="M15">
-        <v>0.9593615050419255</v>
+        <v>1.025299308364127</v>
       </c>
       <c r="N15">
-        <v>1.01033499417167</v>
+        <v>1.033787946698827</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9820676067939885</v>
+        <v>1.026315377451511</v>
       </c>
       <c r="D16">
-        <v>1.003705471261902</v>
+        <v>1.030414704209387</v>
       </c>
       <c r="E16">
-        <v>0.9922030026974514</v>
+        <v>1.030137195426548</v>
       </c>
       <c r="F16">
-        <v>0.9486660464037568</v>
+        <v>1.022689275708708</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034853218576644</v>
+        <v>1.033337221607182</v>
       </c>
       <c r="J16">
-        <v>1.010932092041093</v>
+        <v>1.032699369842788</v>
       </c>
       <c r="K16">
-        <v>1.017971660967852</v>
+        <v>1.033872241675143</v>
       </c>
       <c r="L16">
-        <v>1.006677379532337</v>
+        <v>1.033595734092025</v>
       </c>
       <c r="M16">
-        <v>0.9639888013163761</v>
+        <v>1.026174909383365</v>
       </c>
       <c r="N16">
-        <v>1.012367731567323</v>
+        <v>1.034165921400239</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9841016046693245</v>
+        <v>1.026691136427108</v>
       </c>
       <c r="D17">
-        <v>1.005136112796592</v>
+        <v>1.030687883977194</v>
       </c>
       <c r="E17">
-        <v>0.9940001638264161</v>
+        <v>1.030491545995715</v>
       </c>
       <c r="F17">
-        <v>0.9519314933781206</v>
+        <v>1.023313265320788</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03546208645911</v>
+        <v>1.033426548031764</v>
       </c>
       <c r="J17">
-        <v>1.01218474857235</v>
+        <v>1.032935916741157</v>
       </c>
       <c r="K17">
-        <v>1.019054682693404</v>
+        <v>1.034072342256138</v>
       </c>
       <c r="L17">
-        <v>1.008114216132933</v>
+        <v>1.03387669645575</v>
       </c>
       <c r="M17">
-        <v>0.9668383148078613</v>
+        <v>1.026723923679199</v>
       </c>
       <c r="N17">
-        <v>1.013622167014536</v>
+        <v>1.034402804222335</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9852772123142763</v>
+        <v>1.026910304168546</v>
       </c>
       <c r="D18">
-        <v>1.005963534890351</v>
+        <v>1.030847220100212</v>
       </c>
       <c r="E18">
-        <v>0.9950396074288945</v>
+        <v>1.030698269147851</v>
       </c>
       <c r="F18">
-        <v>0.9538154543010808</v>
+        <v>1.023677200638798</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035812907789853</v>
+        <v>1.033478508752693</v>
       </c>
       <c r="J18">
-        <v>1.012908204062293</v>
+        <v>1.033073814844811</v>
       </c>
       <c r="K18">
-        <v>1.019680117848852</v>
+        <v>1.034188972091595</v>
       </c>
       <c r="L18">
-        <v>1.008944516588119</v>
+        <v>1.034040539108596</v>
       </c>
       <c r="M18">
-        <v>0.9684820388158397</v>
+        <v>1.027044074451546</v>
       </c>
       <c r="N18">
-        <v>1.014346649894256</v>
+        <v>1.034540898157114</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9856762675144759</v>
+        <v>1.026985033687364</v>
       </c>
       <c r="D19">
-        <v>1.006244489496769</v>
+        <v>1.03090154874317</v>
       </c>
       <c r="E19">
-        <v>0.9953925635356109</v>
+        <v>1.030768762590403</v>
       </c>
       <c r="F19">
-        <v>0.9544544041716251</v>
+        <v>1.023801288757038</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035931806524878</v>
+        <v>1.033496201954834</v>
       </c>
       <c r="J19">
-        <v>1.013153683976776</v>
+        <v>1.033120821707079</v>
       </c>
       <c r="K19">
-        <v>1.019892328651029</v>
+        <v>1.034228725362316</v>
       </c>
       <c r="L19">
-        <v>1.009226330798712</v>
+        <v>1.034096398793654</v>
       </c>
       <c r="M19">
-        <v>0.9690394641754175</v>
+        <v>1.027153224201925</v>
       </c>
       <c r="N19">
-        <v>1.014592478418374</v>
+        <v>1.034587971774518</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9838844999034599</v>
+        <v>1.026650821681794</v>
       </c>
       <c r="D20">
-        <v>1.004983352276597</v>
+        <v>1.030658574890311</v>
       </c>
       <c r="E20">
-        <v>0.9938082632065124</v>
+        <v>1.030453523763129</v>
       </c>
       <c r="F20">
-        <v>0.9515833046592468</v>
+        <v>1.023246320008924</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035397210196037</v>
+        <v>1.033416978826829</v>
       </c>
       <c r="J20">
-        <v>1.012051099976567</v>
+        <v>1.032910545330508</v>
       </c>
       <c r="K20">
-        <v>1.018939137795095</v>
+        <v>1.034050882196744</v>
       </c>
       <c r="L20">
-        <v>1.007960867661776</v>
+        <v>1.033846555779701</v>
       </c>
       <c r="M20">
-        <v>0.9665345037980093</v>
+        <v>1.026665027954808</v>
       </c>
       <c r="N20">
-        <v>1.013488328622417</v>
+        <v>1.034377396781373</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9779299079770115</v>
+        <v>1.025564192863277</v>
       </c>
       <c r="D21">
-        <v>1.0007988780787</v>
+        <v>1.029868584985271</v>
       </c>
       <c r="E21">
-        <v>0.9885519128758855</v>
+        <v>1.029429079964782</v>
       </c>
       <c r="F21">
-        <v>0.9419991612790459</v>
+        <v>1.021441727335197</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033607576475932</v>
+        <v>1.033157749113299</v>
       </c>
       <c r="J21">
-        <v>1.008380255941568</v>
+        <v>1.032226025842237</v>
       </c>
       <c r="K21">
-        <v>1.015765131260048</v>
+        <v>1.033471692258666</v>
       </c>
       <c r="L21">
-        <v>1.00375346782956</v>
+        <v>1.033033845327486</v>
       </c>
       <c r="M21">
-        <v>0.9581695031319087</v>
+        <v>1.025076901703322</v>
       </c>
       <c r="N21">
-        <v>1.009812271567837</v>
+        <v>1.033691905196913</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9740807213596452</v>
+        <v>1.024880926711031</v>
       </c>
       <c r="D22">
-        <v>0.9980995094899685</v>
+        <v>1.029371843347434</v>
       </c>
       <c r="E22">
-        <v>0.9851610980149027</v>
+        <v>1.028785298658538</v>
       </c>
       <c r="F22">
-        <v>0.935766312084001</v>
+        <v>1.020306816265647</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032440844104976</v>
+        <v>1.03299348232272</v>
       </c>
       <c r="J22">
-        <v>1.006002249286037</v>
+        <v>1.03179495641721</v>
       </c>
       <c r="K22">
-        <v>1.013708709717686</v>
+        <v>1.033106761764752</v>
       </c>
       <c r="L22">
-        <v>1.001032361465273</v>
+        <v>1.032522517942806</v>
       </c>
       <c r="M22">
-        <v>0.9527274888479993</v>
+        <v>1.024077623226097</v>
       </c>
       <c r="N22">
-        <v>1.007430887870094</v>
+        <v>1.033260223603859</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9761316450421302</v>
+        <v>1.02524314488055</v>
       </c>
       <c r="D23">
-        <v>0.9995372351796029</v>
+        <v>1.029635179550995</v>
       </c>
       <c r="E23">
-        <v>0.9869671165009448</v>
+        <v>1.029126548362431</v>
       </c>
       <c r="F23">
-        <v>0.939091130124356</v>
+        <v>1.020908484034467</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033063419760279</v>
+        <v>1.033080684502836</v>
       </c>
       <c r="J23">
-        <v>1.007269776261419</v>
+        <v>1.032023539532474</v>
       </c>
       <c r="K23">
-        <v>1.014804840910768</v>
+        <v>1.033300291435798</v>
       </c>
       <c r="L23">
-        <v>1.002482341353358</v>
+        <v>1.032793614988798</v>
       </c>
       <c r="M23">
-        <v>0.9556306112145804</v>
+        <v>1.024607433680659</v>
       </c>
       <c r="N23">
-        <v>1.008700214879169</v>
+        <v>1.033489131333365</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9839826334578541</v>
+        <v>1.026669038198494</v>
       </c>
       <c r="D24">
-        <v>1.005052399905558</v>
+        <v>1.030671818420488</v>
       </c>
       <c r="E24">
-        <v>0.9938950019934077</v>
+        <v>1.030470704260557</v>
       </c>
       <c r="F24">
-        <v>0.9517406999684004</v>
+        <v>1.023276569796414</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035426538312698</v>
+        <v>1.033421303176914</v>
       </c>
       <c r="J24">
-        <v>1.012111512213621</v>
+        <v>1.032922009812588</v>
       </c>
       <c r="K24">
-        <v>1.018991366901879</v>
+        <v>1.034060579337735</v>
       </c>
       <c r="L24">
-        <v>1.008030183224742</v>
+        <v>1.03386017517086</v>
       </c>
       <c r="M24">
-        <v>0.9666718394376398</v>
+        <v>1.026691640643273</v>
       </c>
       <c r="N24">
-        <v>1.013548826651778</v>
+        <v>1.034388877544332</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9926732770414906</v>
+        <v>1.028323470419253</v>
       </c>
       <c r="D25">
-        <v>1.011177977684016</v>
+        <v>1.031874582496238</v>
       </c>
       <c r="E25">
-        <v>1.001591447013574</v>
+        <v>1.032031953136657</v>
       </c>
       <c r="F25">
-        <v>0.9656146678532693</v>
+        <v>1.026023555623283</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038000326843895</v>
+        <v>1.033811007144842</v>
       </c>
       <c r="J25">
-        <v>1.017449755731225</v>
+        <v>1.033961666357509</v>
       </c>
       <c r="K25">
-        <v>1.023605213201591</v>
+        <v>1.034939499569091</v>
       </c>
       <c r="L25">
-        <v>1.014165107950242</v>
+        <v>1.035096371598089</v>
       </c>
       <c r="M25">
-        <v>0.9787713052054622</v>
+        <v>1.02910712983142</v>
       </c>
       <c r="N25">
-        <v>1.018894651087481</v>
+        <v>1.035430010520798</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_202/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_202/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029642872460143</v>
+        <v>0.999303499031566</v>
       </c>
       <c r="D2">
-        <v>1.032833735723286</v>
+        <v>1.015865111589104</v>
       </c>
       <c r="E2">
-        <v>1.033278361253346</v>
+        <v>1.007483739774844</v>
       </c>
       <c r="F2">
-        <v>1.02821394495719</v>
+        <v>0.9761217469253354</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034117349114099</v>
+        <v>1.039929173711204</v>
       </c>
       <c r="J2">
-        <v>1.034788514523573</v>
+        <v>1.021505062299535</v>
       </c>
       <c r="K2">
-        <v>1.035637825768086</v>
+        <v>1.027107757886249</v>
       </c>
       <c r="L2">
-        <v>1.03608117050749</v>
+        <v>1.018839789583744</v>
       </c>
       <c r="M2">
-        <v>1.031031414052521</v>
+        <v>0.9879240814962468</v>
       </c>
       <c r="N2">
-        <v>1.03625803290611</v>
+        <v>1.022955716656268</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030600790180702</v>
+        <v>1.003959071598975</v>
       </c>
       <c r="D3">
-        <v>1.033530064845228</v>
+        <v>1.019163108501347</v>
       </c>
       <c r="E3">
-        <v>1.034184041280296</v>
+        <v>1.011632352282087</v>
       </c>
       <c r="F3">
-        <v>1.029804137700556</v>
+        <v>0.9834651452937953</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034337180944157</v>
+        <v>1.041262919241779</v>
       </c>
       <c r="J3">
-        <v>1.035387507612278</v>
+        <v>1.024342387120908</v>
       </c>
       <c r="K3">
-        <v>1.036143310324102</v>
+        <v>1.029556527406098</v>
       </c>
       <c r="L3">
-        <v>1.036795539243833</v>
+        <v>1.022118527446467</v>
       </c>
       <c r="M3">
-        <v>1.032427385176808</v>
+        <v>0.994314057689908</v>
       </c>
       <c r="N3">
-        <v>1.036857876633695</v>
+        <v>1.025797070804334</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031220591702128</v>
+        <v>1.00690299137584</v>
       </c>
       <c r="D4">
-        <v>1.033980588234684</v>
+        <v>1.021251358776216</v>
       </c>
       <c r="E4">
-        <v>1.034770391529595</v>
+        <v>1.014260667797768</v>
       </c>
       <c r="F4">
-        <v>1.030833035577246</v>
+        <v>0.9880957726958136</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034478224356251</v>
+        <v>1.042096566869678</v>
       </c>
       <c r="J4">
-        <v>1.03577446382193</v>
+        <v>1.026131751181395</v>
       </c>
       <c r="K4">
-        <v>1.036469670567916</v>
+        <v>1.03109988987157</v>
       </c>
       <c r="L4">
-        <v>1.037257469763535</v>
+        <v>1.024189972773584</v>
       </c>
       <c r="M4">
-        <v>1.033330137610621</v>
+        <v>0.9983400268089245</v>
       </c>
       <c r="N4">
-        <v>1.037245382365549</v>
+        <v>1.027588975967029</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03148114812495</v>
+        <v>1.00812486926891</v>
       </c>
       <c r="D5">
-        <v>1.034169976335252</v>
+        <v>1.022118705812506</v>
       </c>
       <c r="E5">
-        <v>1.035016968440821</v>
+        <v>1.015352716256003</v>
       </c>
       <c r="F5">
-        <v>1.031265574650826</v>
+        <v>0.9900150269859893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034537231101289</v>
+        <v>1.042440208692187</v>
       </c>
       <c r="J5">
-        <v>1.035936988991353</v>
+        <v>1.026873265173401</v>
       </c>
       <c r="K5">
-        <v>1.036606699496834</v>
+        <v>1.031739213325259</v>
       </c>
       <c r="L5">
-        <v>1.037451590297705</v>
+        <v>1.025049267617649</v>
       </c>
       <c r="M5">
-        <v>1.03370953157025</v>
+        <v>1.000007806824275</v>
       </c>
       <c r="N5">
-        <v>1.037408138339354</v>
+        <v>1.028331542993957</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031524896226788</v>
+        <v>1.008329123146941</v>
       </c>
       <c r="D6">
-        <v>1.034201774718837</v>
+        <v>1.022263729657412</v>
       </c>
       <c r="E6">
-        <v>1.035058374200582</v>
+        <v>1.015535334848318</v>
       </c>
       <c r="F6">
-        <v>1.031338199462438</v>
+        <v>0.990335709895942</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034547121709661</v>
+        <v>1.042497513345394</v>
       </c>
       <c r="J6">
-        <v>1.035964268819649</v>
+        <v>1.026997150736123</v>
       </c>
       <c r="K6">
-        <v>1.036629697115359</v>
+        <v>1.031846010768724</v>
       </c>
       <c r="L6">
-        <v>1.037484179590283</v>
+        <v>1.025192883011602</v>
       </c>
       <c r="M6">
-        <v>1.033773226400503</v>
+        <v>1.00028641994455</v>
       </c>
       <c r="N6">
-        <v>1.037435456908135</v>
+        <v>1.028455604488388</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031224073301386</v>
+        <v>1.00691937918962</v>
       </c>
       <c r="D7">
-        <v>1.033983118895173</v>
+        <v>1.021262989258963</v>
       </c>
       <c r="E7">
-        <v>1.034773686006711</v>
+        <v>1.014275309784023</v>
       </c>
       <c r="F7">
-        <v>1.030838815216339</v>
+        <v>0.9881215238474077</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034479013938576</v>
+        <v>1.042101185173928</v>
       </c>
       <c r="J7">
-        <v>1.035776636085191</v>
+        <v>1.026141700976879</v>
       </c>
       <c r="K7">
-        <v>1.036471502234697</v>
+        <v>1.031108469452597</v>
       </c>
       <c r="L7">
-        <v>1.037260063906454</v>
+        <v>1.024201499476117</v>
       </c>
       <c r="M7">
-        <v>1.033335207569347</v>
+        <v>0.9983624073147609</v>
       </c>
       <c r="N7">
-        <v>1.037247557713673</v>
+        <v>1.027598939892365</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029966612737224</v>
+        <v>1.000891477977782</v>
       </c>
       <c r="D8">
-        <v>1.033069073125948</v>
+        <v>1.016989414933294</v>
       </c>
       <c r="E8">
-        <v>1.033584374851946</v>
+        <v>1.008897736578962</v>
       </c>
       <c r="F8">
-        <v>1.028751374447106</v>
+        <v>0.9786294947100921</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034191891275137</v>
+        <v>1.040386131604757</v>
       </c>
       <c r="J8">
-        <v>1.034991078082914</v>
+        <v>1.022473851922219</v>
       </c>
       <c r="K8">
-        <v>1.03580880611768</v>
+        <v>1.027944068247616</v>
       </c>
       <c r="L8">
-        <v>1.036322659790857</v>
+        <v>1.019958516300407</v>
       </c>
       <c r="M8">
-        <v>1.031503302495856</v>
+        <v>0.9901069414109308</v>
       </c>
       <c r="N8">
-        <v>1.036460884128927</v>
+        <v>1.023925882071338</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027750521542847</v>
+        <v>0.9897124191875899</v>
       </c>
       <c r="D9">
-        <v>1.031458056836278</v>
+        <v>1.009088662655494</v>
       </c>
       <c r="E9">
-        <v>1.031491069543372</v>
+        <v>0.9989659520697042</v>
       </c>
       <c r="F9">
-        <v>1.025072305920073</v>
+        <v>0.9609017298340435</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033676735872699</v>
+        <v>1.037128874818702</v>
       </c>
       <c r="J9">
-        <v>1.033601973107908</v>
+        <v>1.015633762982765</v>
       </c>
       <c r="K9">
-        <v>1.034635522553382</v>
+        <v>1.022035983813536</v>
       </c>
       <c r="L9">
-        <v>1.034668426530121</v>
+        <v>1.012075828288121</v>
       </c>
       <c r="M9">
-        <v>1.028270948222689</v>
+        <v>0.9746626872237701</v>
       </c>
       <c r="N9">
-        <v>1.035069806465525</v>
+        <v>1.017076079421021</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.0262729122298</v>
+        <v>0.9818362596511598</v>
       </c>
       <c r="D10">
-        <v>1.030383831593888</v>
+        <v>1.003542825660497</v>
       </c>
       <c r="E10">
-        <v>1.030097155331567</v>
+        <v>0.991998693056068</v>
       </c>
       <c r="F10">
-        <v>1.022618755033256</v>
+        <v>0.9482941517282626</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03332710766339</v>
+        <v>1.034783817685042</v>
       </c>
       <c r="J10">
-        <v>1.032672627514841</v>
+        <v>1.010789539365428</v>
       </c>
       <c r="K10">
-        <v>1.033849616819133</v>
+        <v>1.017848406573049</v>
       </c>
       <c r="L10">
-        <v>1.033563977500297</v>
+        <v>1.006513932136407</v>
       </c>
       <c r="M10">
-        <v>1.026112854529444</v>
+        <v>0.9636642411639015</v>
       </c>
       <c r="N10">
-        <v>1.034139141095118</v>
+        <v>1.012224976450507</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025633033853964</v>
+        <v>0.978313144456367</v>
       </c>
       <c r="D11">
-        <v>1.02991863316344</v>
+        <v>1.001067877106406</v>
       </c>
       <c r="E11">
-        <v>1.029493959028182</v>
+        <v>0.9888898107746318</v>
       </c>
       <c r="F11">
-        <v>1.02155606402449</v>
+        <v>0.9426180589670947</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033174245884125</v>
+        <v>1.033723330717923</v>
       </c>
       <c r="J11">
-        <v>1.032269429872461</v>
+        <v>1.008616805054861</v>
       </c>
       <c r="K11">
-        <v>1.033508428742654</v>
+        <v>1.015969682889036</v>
       </c>
       <c r="L11">
-        <v>1.033085350326705</v>
+        <v>1.004024335169964</v>
       </c>
       <c r="M11">
-        <v>1.025177552765333</v>
+        <v>0.9587097983294836</v>
       </c>
       <c r="N11">
-        <v>1.033735370865839</v>
+        <v>1.010049156608004</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025395344308621</v>
+        <v>0.9769864162917907</v>
       </c>
       <c r="D12">
-        <v>1.029745830194165</v>
+        <v>1.000136813846296</v>
       </c>
       <c r="E12">
-        <v>1.029269961628853</v>
+        <v>0.9877202718521182</v>
       </c>
       <c r="F12">
-        <v>1.021161283372419</v>
+        <v>0.9404742327031504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033117245196889</v>
+        <v>1.033322278975213</v>
       </c>
       <c r="J12">
-        <v>1.032119545981737</v>
+        <v>1.007797728305146</v>
       </c>
       <c r="K12">
-        <v>1.033381563088782</v>
+        <v>1.015261393188098</v>
       </c>
       <c r="L12">
-        <v>1.032907507443795</v>
+        <v>1.003086575088898</v>
       </c>
       <c r="M12">
-        <v>1.024830009105135</v>
+        <v>0.9568381840235236</v>
       </c>
       <c r="N12">
-        <v>1.033585274122798</v>
+        <v>1.009228916675354</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025446329996064</v>
+        <v>0.9772718422158205</v>
       </c>
       <c r="D13">
-        <v>1.029782897356213</v>
+        <v>1.000337074173343</v>
       </c>
       <c r="E13">
-        <v>1.029318007274787</v>
+        <v>0.98797182596136</v>
       </c>
       <c r="F13">
-        <v>1.021245967528669</v>
+        <v>0.9409357458885057</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033129482040815</v>
+        <v>1.033408635356596</v>
       </c>
       <c r="J13">
-        <v>1.032151701946701</v>
+        <v>1.007973979886471</v>
       </c>
       <c r="K13">
-        <v>1.033408782232624</v>
+        <v>1.015413807005736</v>
       </c>
       <c r="L13">
-        <v>1.032945658040984</v>
+        <v>1.00328833045927</v>
       </c>
       <c r="M13">
-        <v>1.024904564418704</v>
+        <v>0.9572411112865362</v>
       </c>
       <c r="N13">
-        <v>1.03361747575292</v>
+        <v>1.009405418554141</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025613386574336</v>
+        <v>0.9782038527282121</v>
       </c>
       <c r="D14">
-        <v>1.029904349369028</v>
+        <v>1.000991159285536</v>
       </c>
       <c r="E14">
-        <v>1.029475442180478</v>
+        <v>0.9887934431971546</v>
       </c>
       <c r="F14">
-        <v>1.021523432389528</v>
+        <v>0.9424415911126707</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033169538698765</v>
+        <v>1.033690327569926</v>
       </c>
       <c r="J14">
-        <v>1.032257042839704</v>
+        <v>1.008549349765226</v>
       </c>
       <c r="K14">
-        <v>1.033497944706438</v>
+        <v>1.015911352327064</v>
       </c>
       <c r="L14">
-        <v>1.033070650992996</v>
+        <v>1.003947090022238</v>
       </c>
       <c r="M14">
-        <v>1.025148827402737</v>
+        <v>0.9585557441385206</v>
       </c>
       <c r="N14">
-        <v>1.033722966242074</v>
+        <v>1.00998160552412</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025716314271446</v>
+        <v>0.9787756620890166</v>
       </c>
       <c r="D15">
-        <v>1.029979178967463</v>
+        <v>1.001392582544798</v>
       </c>
       <c r="E15">
-        <v>1.02957245051157</v>
+        <v>0.9892976830641023</v>
       </c>
       <c r="F15">
-        <v>1.021694380834316</v>
+        <v>0.9433645996892454</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033194189638051</v>
+        <v>1.033862929690641</v>
       </c>
       <c r="J15">
-        <v>1.032321931147617</v>
+        <v>1.00890223727204</v>
       </c>
       <c r="K15">
-        <v>1.033552862993177</v>
+        <v>1.016216502649514</v>
       </c>
       <c r="L15">
-        <v>1.033147655389768</v>
+        <v>1.004351223788672</v>
       </c>
       <c r="M15">
-        <v>1.025299308364127</v>
+        <v>0.959361505041926</v>
       </c>
       <c r="N15">
-        <v>1.033787946698827</v>
+        <v>1.010334994171671</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026315377451511</v>
+        <v>0.982067606793988</v>
       </c>
       <c r="D16">
-        <v>1.030414704209387</v>
+        <v>1.003705471261902</v>
       </c>
       <c r="E16">
-        <v>1.030137195426548</v>
+        <v>0.9922030026974502</v>
       </c>
       <c r="F16">
-        <v>1.022689275708708</v>
+        <v>0.9486660464037561</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033337221607182</v>
+        <v>1.034853218576644</v>
       </c>
       <c r="J16">
-        <v>1.032699369842788</v>
+        <v>1.010932092041092</v>
       </c>
       <c r="K16">
-        <v>1.033872241675143</v>
+        <v>1.017971660967851</v>
       </c>
       <c r="L16">
-        <v>1.033595734092025</v>
+        <v>1.006677379532336</v>
       </c>
       <c r="M16">
-        <v>1.026174909383365</v>
+        <v>0.9639888013163752</v>
       </c>
       <c r="N16">
-        <v>1.034165921400239</v>
+        <v>1.012367731567322</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026691136427108</v>
+        <v>0.9841016046693254</v>
       </c>
       <c r="D17">
-        <v>1.030687883977194</v>
+        <v>1.005136112796593</v>
       </c>
       <c r="E17">
-        <v>1.030491545995715</v>
+        <v>0.994000163826417</v>
       </c>
       <c r="F17">
-        <v>1.023313265320788</v>
+        <v>0.9519314933781216</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033426548031764</v>
+        <v>1.03546208645911</v>
       </c>
       <c r="J17">
-        <v>1.032935916741157</v>
+        <v>1.012184748572351</v>
       </c>
       <c r="K17">
-        <v>1.034072342256138</v>
+        <v>1.019054682693405</v>
       </c>
       <c r="L17">
-        <v>1.03387669645575</v>
+        <v>1.008114216132934</v>
       </c>
       <c r="M17">
-        <v>1.026723923679199</v>
+        <v>0.9668383148078625</v>
       </c>
       <c r="N17">
-        <v>1.034402804222335</v>
+        <v>1.013622167014537</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026910304168546</v>
+        <v>0.9852772123142759</v>
       </c>
       <c r="D18">
-        <v>1.030847220100212</v>
+        <v>1.005963534890351</v>
       </c>
       <c r="E18">
-        <v>1.030698269147851</v>
+        <v>0.9950396074288941</v>
       </c>
       <c r="F18">
-        <v>1.023677200638798</v>
+        <v>0.9538154543010804</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033478508752693</v>
+        <v>1.035812907789853</v>
       </c>
       <c r="J18">
-        <v>1.033073814844811</v>
+        <v>1.012908204062292</v>
       </c>
       <c r="K18">
-        <v>1.034188972091595</v>
+        <v>1.019680117848851</v>
       </c>
       <c r="L18">
-        <v>1.034040539108596</v>
+        <v>1.008944516588119</v>
       </c>
       <c r="M18">
-        <v>1.027044074451546</v>
+        <v>0.9684820388158394</v>
       </c>
       <c r="N18">
-        <v>1.034540898157114</v>
+        <v>1.014346649894255</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026985033687364</v>
+        <v>0.9856762675144768</v>
       </c>
       <c r="D19">
-        <v>1.03090154874317</v>
+        <v>1.00624448949677</v>
       </c>
       <c r="E19">
-        <v>1.030768762590403</v>
+        <v>0.9953925635356118</v>
       </c>
       <c r="F19">
-        <v>1.023801288757038</v>
+        <v>0.9544544041716264</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033496201954834</v>
+        <v>1.035931806524879</v>
       </c>
       <c r="J19">
-        <v>1.033120821707079</v>
+        <v>1.013153683976776</v>
       </c>
       <c r="K19">
-        <v>1.034228725362316</v>
+        <v>1.01989232865103</v>
       </c>
       <c r="L19">
-        <v>1.034096398793654</v>
+        <v>1.009226330798713</v>
       </c>
       <c r="M19">
-        <v>1.027153224201925</v>
+        <v>0.9690394641754188</v>
       </c>
       <c r="N19">
-        <v>1.034587971774518</v>
+        <v>1.014592478418375</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026650821681794</v>
+        <v>0.9838844999034597</v>
       </c>
       <c r="D20">
-        <v>1.030658574890311</v>
+        <v>1.004983352276597</v>
       </c>
       <c r="E20">
-        <v>1.030453523763129</v>
+        <v>0.9938082632065121</v>
       </c>
       <c r="F20">
-        <v>1.023246320008924</v>
+        <v>0.9515833046592463</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033416978826829</v>
+        <v>1.035397210196037</v>
       </c>
       <c r="J20">
-        <v>1.032910545330508</v>
+        <v>1.012051099976567</v>
       </c>
       <c r="K20">
-        <v>1.034050882196744</v>
+        <v>1.018939137795095</v>
       </c>
       <c r="L20">
-        <v>1.033846555779701</v>
+        <v>1.007960867661775</v>
       </c>
       <c r="M20">
-        <v>1.026665027954808</v>
+        <v>0.9665345037980089</v>
       </c>
       <c r="N20">
-        <v>1.034377396781373</v>
+        <v>1.013488328622417</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025564192863277</v>
+        <v>0.9779299079770111</v>
       </c>
       <c r="D21">
-        <v>1.029868584985271</v>
+        <v>1.0007988780787</v>
       </c>
       <c r="E21">
-        <v>1.029429079964782</v>
+        <v>0.988551912875885</v>
       </c>
       <c r="F21">
-        <v>1.021441727335197</v>
+        <v>0.9419991612790454</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033157749113299</v>
+        <v>1.033607576475932</v>
       </c>
       <c r="J21">
-        <v>1.032226025842237</v>
+        <v>1.008380255941567</v>
       </c>
       <c r="K21">
-        <v>1.033471692258666</v>
+        <v>1.015765131260047</v>
       </c>
       <c r="L21">
-        <v>1.033033845327486</v>
+        <v>1.003753467829559</v>
       </c>
       <c r="M21">
-        <v>1.025076901703322</v>
+        <v>0.9581695031319083</v>
       </c>
       <c r="N21">
-        <v>1.033691905196913</v>
+        <v>1.009812271567836</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024880926711031</v>
+        <v>0.9740807213596445</v>
       </c>
       <c r="D22">
-        <v>1.029371843347434</v>
+        <v>0.9980995094899682</v>
       </c>
       <c r="E22">
-        <v>1.028785298658538</v>
+        <v>0.9851610980149019</v>
       </c>
       <c r="F22">
-        <v>1.020306816265647</v>
+        <v>0.9357663120840002</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03299348232272</v>
+        <v>1.032440844104976</v>
       </c>
       <c r="J22">
-        <v>1.03179495641721</v>
+        <v>1.006002249286037</v>
       </c>
       <c r="K22">
-        <v>1.033106761764752</v>
+        <v>1.013708709717686</v>
       </c>
       <c r="L22">
-        <v>1.032522517942806</v>
+        <v>1.001032361465272</v>
       </c>
       <c r="M22">
-        <v>1.024077623226097</v>
+        <v>0.9527274888479986</v>
       </c>
       <c r="N22">
-        <v>1.033260223603859</v>
+        <v>1.007430887870093</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02524314488055</v>
+        <v>0.97613164504213</v>
       </c>
       <c r="D23">
-        <v>1.029635179550995</v>
+        <v>0.9995372351796028</v>
       </c>
       <c r="E23">
-        <v>1.029126548362431</v>
+        <v>0.9869671165009444</v>
       </c>
       <c r="F23">
-        <v>1.020908484034467</v>
+        <v>0.9390911301243555</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033080684502836</v>
+        <v>1.033063419760278</v>
       </c>
       <c r="J23">
-        <v>1.032023539532474</v>
+        <v>1.007269776261419</v>
       </c>
       <c r="K23">
-        <v>1.033300291435798</v>
+        <v>1.014804840910768</v>
       </c>
       <c r="L23">
-        <v>1.032793614988798</v>
+        <v>1.002482341353357</v>
       </c>
       <c r="M23">
-        <v>1.024607433680659</v>
+        <v>0.95563061121458</v>
       </c>
       <c r="N23">
-        <v>1.033489131333365</v>
+        <v>1.008700214879169</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026669038198494</v>
+        <v>0.9839826334578535</v>
       </c>
       <c r="D24">
-        <v>1.030671818420488</v>
+        <v>1.005052399905557</v>
       </c>
       <c r="E24">
-        <v>1.030470704260557</v>
+        <v>0.993895001993407</v>
       </c>
       <c r="F24">
-        <v>1.023276569796414</v>
+        <v>0.9517406999684001</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033421303176914</v>
+        <v>1.035426538312697</v>
       </c>
       <c r="J24">
-        <v>1.032922009812588</v>
+        <v>1.012111512213621</v>
       </c>
       <c r="K24">
-        <v>1.034060579337735</v>
+        <v>1.018991366901879</v>
       </c>
       <c r="L24">
-        <v>1.03386017517086</v>
+        <v>1.008030183224742</v>
       </c>
       <c r="M24">
-        <v>1.026691640643273</v>
+        <v>0.9666718394376396</v>
       </c>
       <c r="N24">
-        <v>1.034388877544332</v>
+        <v>1.013548826651777</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028323470419253</v>
+        <v>0.9926732770414906</v>
       </c>
       <c r="D25">
-        <v>1.031874582496238</v>
+        <v>1.011177977684016</v>
       </c>
       <c r="E25">
-        <v>1.032031953136657</v>
+        <v>1.001591447013575</v>
       </c>
       <c r="F25">
-        <v>1.026023555623283</v>
+        <v>0.9656146678532695</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033811007144842</v>
+        <v>1.038000326843895</v>
       </c>
       <c r="J25">
-        <v>1.033961666357509</v>
+        <v>1.017449755731225</v>
       </c>
       <c r="K25">
-        <v>1.034939499569091</v>
+        <v>1.023605213201591</v>
       </c>
       <c r="L25">
-        <v>1.035096371598089</v>
+        <v>1.014165107950242</v>
       </c>
       <c r="M25">
-        <v>1.02910712983142</v>
+        <v>0.9787713052054623</v>
       </c>
       <c r="N25">
-        <v>1.035430010520798</v>
+        <v>1.018894651087481</v>
       </c>
     </row>
   </sheetData>
